--- a/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-MakeRepayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Principal</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Interest</t>
@@ -170,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +188,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -244,23 +249,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +601,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,381 +614,378 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="9">
+        <v>41897</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8">
+        <v>10053.33</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>200</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
+        <v>200</v>
+      </c>
+      <c r="L2" s="6">
+        <v>200</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9">
+        <v>41944</v>
+      </c>
+      <c r="D3" s="9">
+        <v>41974</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8">
+        <v>1634.47</v>
+      </c>
+      <c r="G3" s="8">
+        <v>8418.86</v>
+      </c>
+      <c r="H3" s="6">
+        <v>100.53</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1735</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1735</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="11">
+        <v>1735</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9">
+        <v>41974</v>
+      </c>
+      <c r="D4" s="9">
+        <v>41988</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8">
+        <v>1650.81</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6768.05</v>
+      </c>
+      <c r="H4" s="6">
+        <v>84.19</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1735</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1735</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>470</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
         <v>31</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="11">
-        <v>41897</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7">
-        <v>10053.33</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8">
-        <v>300</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8">
-        <v>300</v>
-      </c>
-      <c r="L2" s="8">
-        <v>300</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>47</v>
-      </c>
-      <c r="C3" s="11">
-        <v>41944</v>
-      </c>
-      <c r="D3" s="11">
-        <v>41974</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7">
-        <v>1634.47</v>
-      </c>
-      <c r="G3" s="7">
-        <v>8418.86</v>
-      </c>
-      <c r="H3" s="8">
-        <v>100.53</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="C5" s="9">
+        <v>42005</v>
+      </c>
+      <c r="D5" s="9">
+        <v>42036</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8">
+        <v>1667.32</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5100.7299999999996</v>
+      </c>
+      <c r="H5" s="6">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
         <v>1735</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L5" s="11">
         <v>1735</v>
       </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9">
+      <c r="M5" s="6">
+        <v>530</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="11">
+        <v>1205</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9">
+        <v>42036</v>
+      </c>
+      <c r="D6" s="9">
+        <v>42078</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8">
+        <v>1683.99</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3416.74</v>
+      </c>
+      <c r="H6" s="6">
+        <v>51.01</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
         <v>1735</v>
       </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>30</v>
-      </c>
-      <c r="C4" s="11">
-        <v>41974</v>
-      </c>
-      <c r="D4" s="11">
-        <v>41988</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7">
-        <v>1650.81</v>
-      </c>
-      <c r="G4" s="7">
-        <v>6768.05</v>
-      </c>
-      <c r="H4" s="8">
-        <v>84.19</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="L6" s="8">
+        <v>1683.99</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>288.99</v>
+      </c>
+      <c r="P6" s="6">
+        <v>51.01</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42064</v>
+      </c>
+      <c r="D7" s="9">
+        <v>42095</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8">
+        <v>1700.83</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1715.91</v>
+      </c>
+      <c r="H7" s="6">
+        <v>34.17</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
         <v>1735</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L7" s="11">
         <v>1735</v>
       </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8">
-        <v>470</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="11">
+        <v>1735</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
         <v>31</v>
       </c>
-      <c r="C5" s="11">
-        <v>42005</v>
-      </c>
-      <c r="D5" s="11">
-        <v>42036</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7">
-        <v>1667.32</v>
-      </c>
-      <c r="G5" s="7">
-        <v>5100.7299999999996</v>
-      </c>
-      <c r="H5" s="8">
-        <v>67.680000000000007</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="C8" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8">
+        <v>1715.91</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>19.09</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
         <v>1735</v>
       </c>
-      <c r="L5" s="9">
-        <v>1735</v>
-      </c>
-      <c r="M5" s="8">
-        <v>530</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9">
-        <v>1205</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>31</v>
-      </c>
-      <c r="C6" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D6" s="11">
-        <v>42078</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7">
-        <v>1683.99</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3416.74</v>
-      </c>
-      <c r="H6" s="8">
-        <v>51.01</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1735</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1683.99</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8">
-        <v>288.99</v>
-      </c>
-      <c r="P6" s="8">
-        <v>51.01</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11">
-        <v>42064</v>
-      </c>
-      <c r="D7" s="11">
-        <v>42095</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7">
-        <v>1700.83</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1715.91</v>
-      </c>
-      <c r="H7" s="8">
-        <v>34.17</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1735</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1735</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9">
-        <v>1735</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <v>31</v>
-      </c>
-      <c r="C8" s="11">
-        <v>42095</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7">
-        <v>1715.91</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>19.09</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>1735</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1600</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>135</v>
+      <c r="L8" s="8">
+        <v>1599.01</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>135.99</v>
       </c>
     </row>
   </sheetData>
@@ -993,10 +995,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,421 +1011,447 @@
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>129</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>99</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9">
+        <v>42095</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="11">
-        <v>42095</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="11">
+        <v>1723</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1703.91</v>
+      </c>
+      <c r="G2" s="6">
+        <v>19.09</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>135.99</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>128</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9">
+        <v>42078</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1900</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1865.83</v>
+      </c>
+      <c r="G3" s="6">
+        <v>34.17</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1839.9</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>127</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="9">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1900</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1900</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3705.73</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>126</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9">
+        <v>42021</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7">
-        <v>1723.99</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1704.9</v>
-      </c>
-      <c r="G2" s="8">
-        <v>19.09</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>91</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="E5" s="6">
+        <v>51.01</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>5605.73</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>125</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9">
+        <v>42019</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11">
-        <v>42078</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1900</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1865.83</v>
-      </c>
-      <c r="G3" s="8">
-        <v>34.17</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1839.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>90</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="E6" s="6">
+        <v>700</v>
+      </c>
+      <c r="F6" s="6">
+        <v>700</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5605.73</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>124</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9">
+        <v>41988</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1900</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1900</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>3705.73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>89</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="E7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>932.32</v>
+      </c>
+      <c r="G7" s="6">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>6305.73</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>123</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="9">
+        <v>41974</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="11">
-        <v>42021</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E8" s="11">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1415.81</v>
+      </c>
+      <c r="G8" s="6">
+        <v>84.19</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>7238.05</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>122</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9">
+        <v>41959</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1399.47</v>
+      </c>
+      <c r="G9" s="6">
+        <v>100.53</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>8653.86</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>121</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9">
+        <v>41944</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1735</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1634.47</v>
+      </c>
+      <c r="G10" s="6">
+        <v>100.53</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>8418.86</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>120</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9">
+        <v>41897</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="8">
-        <v>51.01</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>5605.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>88</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="11">
-        <v>42019</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8">
-        <v>700</v>
-      </c>
-      <c r="F6" s="8">
-        <v>700</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>5605.73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>87</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="11">
-        <v>41988</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="8">
-        <v>932.32</v>
-      </c>
-      <c r="G7" s="8">
-        <v>67.680000000000007</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>6305.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>86</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="11">
-        <v>41974</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1500</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1415.81</v>
-      </c>
-      <c r="G8" s="8">
-        <v>84.19</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>7238.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>85</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="11">
-        <v>41959</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1500</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1399.47</v>
-      </c>
-      <c r="G9" s="8">
-        <v>100.53</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>8653.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>84</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="11">
-        <v>41944</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1735</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1634.47</v>
-      </c>
-      <c r="G10" s="8">
-        <v>100.53</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>8418.86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>83</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="E11" s="6">
+        <v>53.33</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>10053.33</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>119</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9">
         <v>41897</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8">
-        <v>53.33</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>10053.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>82</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="E12" s="6">
+        <v>200</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>200</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>118</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9">
         <v>41897</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="8">
-        <v>300</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>300</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="E13" s="11">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>81</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="11">
-        <v>41897</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>10000</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>10000</v>
-      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1740,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1792,113 +1820,113 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>10053.33</v>
       </c>
-      <c r="B2" s="7">
-        <v>9918.33</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>135</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="B2" s="8">
+        <v>9917.34</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>135.99</v>
+      </c>
+      <c r="F2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>356.67</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>305.66000000000003</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>51.01</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>300</v>
-      </c>
-      <c r="B4" s="8">
-        <v>300</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="A4" s="6">
+        <v>200</v>
+      </c>
+      <c r="B4" s="6">
+        <v>200</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-MakeRepayment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="10"/>
@@ -167,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -242,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -267,6 +274,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,7 +609,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,8 +622,8 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -711,10 +719,10 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="8">
-        <v>1634.47</v>
+        <v>1632.64</v>
       </c>
       <c r="G3" s="8">
-        <v>8418.86</v>
+        <v>8420.69</v>
       </c>
       <c r="H3" s="6">
         <v>100.53</v>
@@ -725,18 +733,18 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="11">
-        <v>1735</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1735</v>
+      <c r="K3" s="8">
+        <v>1733.17</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1733.17</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
       <c r="N3" s="6"/>
-      <c r="O3" s="11">
-        <v>1735</v>
+      <c r="O3" s="8">
+        <v>1733.17</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -760,13 +768,13 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="8">
-        <v>1650.81</v>
+        <v>1650.79</v>
       </c>
       <c r="G4" s="8">
-        <v>6768.05</v>
+        <v>6769.9</v>
       </c>
       <c r="H4" s="6">
-        <v>84.19</v>
+        <v>84.21</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -785,7 +793,7 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6">
-        <v>470</v>
+        <v>468.17</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
@@ -809,13 +817,13 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="8">
-        <v>1667.32</v>
+        <v>1667.3</v>
       </c>
       <c r="G5" s="8">
-        <v>5100.7299999999996</v>
+        <v>5102.6000000000004</v>
       </c>
       <c r="H5" s="6">
-        <v>67.680000000000007</v>
+        <v>67.7</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -830,11 +838,11 @@
         <v>1735</v>
       </c>
       <c r="M5" s="6">
-        <v>530</v>
+        <v>531.83000000000004</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="11">
-        <v>1205</v>
+      <c r="O5" s="8">
+        <v>1203.17</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
@@ -858,13 +866,13 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="8">
-        <v>1683.99</v>
+        <v>1683.97</v>
       </c>
       <c r="G6" s="8">
-        <v>3416.74</v>
+        <v>3418.63</v>
       </c>
       <c r="H6" s="6">
-        <v>51.01</v>
+        <v>51.03</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -876,17 +884,17 @@
         <v>1735</v>
       </c>
       <c r="L6" s="8">
-        <v>1683.99</v>
+        <v>1683.97</v>
       </c>
       <c r="M6" s="6">
         <v>0</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6">
-        <v>288.99</v>
+        <v>287.14</v>
       </c>
       <c r="P6" s="6">
-        <v>51.01</v>
+        <v>51.03</v>
       </c>
       <c r="Q6" s="6">
         <v>0</v>
@@ -907,13 +915,13 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="8">
-        <v>1700.83</v>
+        <v>1700.81</v>
       </c>
       <c r="G7" s="8">
-        <v>1715.91</v>
+        <v>1717.82</v>
       </c>
       <c r="H7" s="6">
-        <v>34.17</v>
+        <v>34.19</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -954,13 +962,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="8">
-        <v>1715.91</v>
+        <v>1717.82</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>19.09</v>
+        <v>17.18</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -972,7 +980,7 @@
         <v>1735</v>
       </c>
       <c r="L8" s="8">
-        <v>1599.01</v>
+        <v>1600.86</v>
       </c>
       <c r="M8" s="6">
         <v>0</v>
@@ -985,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="6">
-        <v>135.99</v>
+        <v>134.13999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -998,17 +1006,18 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,7 +1056,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>37</v>
@@ -1062,10 +1071,10 @@
         <v>1723</v>
       </c>
       <c r="F2" s="8">
-        <v>1703.91</v>
+        <v>1705.82</v>
       </c>
       <c r="G2" s="6">
-        <v>19.09</v>
+        <v>17.18</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1074,14 +1083,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>135.99</v>
+        <v>134.13999999999999</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>37</v>
@@ -1096,10 +1105,10 @@
         <v>1900</v>
       </c>
       <c r="F3" s="8">
-        <v>1865.83</v>
+        <v>1865.81</v>
       </c>
       <c r="G3" s="6">
-        <v>34.17</v>
+        <v>34.19</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -1108,14 +1117,14 @@
         <v>0</v>
       </c>
       <c r="J3" s="8">
-        <v>1839.9</v>
+        <v>1839.96</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>37</v>
@@ -1142,14 +1151,14 @@
         <v>0</v>
       </c>
       <c r="J4" s="8">
-        <v>3705.73</v>
+        <v>3705.77</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1161,7 +1170,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="6">
-        <v>51.01</v>
+        <v>51.03</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1176,14 +1185,14 @@
         <v>0</v>
       </c>
       <c r="J5" s="8">
-        <v>5605.73</v>
+        <v>5605.77</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>37</v>
@@ -1210,14 +1219,14 @@
         <v>0</v>
       </c>
       <c r="J6" s="8">
-        <v>5605.73</v>
+        <v>5605.77</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>37</v>
@@ -1232,10 +1241,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="6">
-        <v>932.32</v>
+        <v>932.3</v>
       </c>
       <c r="G7" s="6">
-        <v>67.680000000000007</v>
+        <v>67.7</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -1244,14 +1253,14 @@
         <v>0</v>
       </c>
       <c r="J7" s="8">
-        <v>6305.73</v>
+        <v>6305.77</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>37</v>
@@ -1266,10 +1275,10 @@
         <v>1500</v>
       </c>
       <c r="F8" s="8">
-        <v>1415.81</v>
+        <v>1415.79</v>
       </c>
       <c r="G8" s="6">
-        <v>84.19</v>
+        <v>84.21</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1278,14 +1287,14 @@
         <v>0</v>
       </c>
       <c r="J8" s="8">
-        <v>7238.05</v>
+        <v>7238.07</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>37</v>
@@ -1319,7 +1328,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>37</v>
@@ -1330,11 +1339,11 @@
       <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="11">
-        <v>1735</v>
+      <c r="E10" s="8">
+        <v>1733.17</v>
       </c>
       <c r="F10" s="8">
-        <v>1634.47</v>
+        <v>1632.64</v>
       </c>
       <c r="G10" s="6">
         <v>100.53</v>
@@ -1346,14 +1355,14 @@
         <v>0</v>
       </c>
       <c r="J10" s="8">
-        <v>8418.86</v>
+        <v>8420.69</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>37</v>
@@ -1387,7 +1396,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>37</v>
@@ -1421,7 +1430,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>37</v>
@@ -1820,16 +1829,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1857,14 +1865,14 @@
         <v>10053.33</v>
       </c>
       <c r="B2" s="8">
-        <v>9917.34</v>
+        <v>9919.19</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2" s="6">
-        <v>135.99</v>
+        <v>134.13999999999999</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -1872,13 +1880,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>356.67</v>
+        <v>354.84</v>
       </c>
       <c r="B3" s="6">
-        <v>305.66000000000003</v>
+        <v>303.81</v>
       </c>
       <c r="C3" s="6">
-        <v>51.01</v>
+        <v>51.03</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>

--- a/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-MakeRepayment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="10"/>
@@ -167,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +191,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -249,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -274,7 +267,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,7 +601,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,8 +614,8 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -719,10 +711,10 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="8">
-        <v>1632.64</v>
+        <v>1634.47</v>
       </c>
       <c r="G3" s="8">
-        <v>8420.69</v>
+        <v>8418.86</v>
       </c>
       <c r="H3" s="6">
         <v>100.53</v>
@@ -733,18 +725,18 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="8">
-        <v>1733.17</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1733.17</v>
+      <c r="K3" s="11">
+        <v>1735</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1735</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
       <c r="N3" s="6"/>
-      <c r="O3" s="8">
-        <v>1733.17</v>
+      <c r="O3" s="11">
+        <v>1735</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -768,13 +760,13 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="8">
-        <v>1650.79</v>
+        <v>1650.81</v>
       </c>
       <c r="G4" s="8">
-        <v>6769.9</v>
+        <v>6768.05</v>
       </c>
       <c r="H4" s="6">
-        <v>84.21</v>
+        <v>84.19</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -793,7 +785,7 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6">
-        <v>468.17</v>
+        <v>470</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
@@ -817,13 +809,13 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="8">
-        <v>1667.3</v>
+        <v>1667.32</v>
       </c>
       <c r="G5" s="8">
-        <v>5102.6000000000004</v>
+        <v>5100.7299999999996</v>
       </c>
       <c r="H5" s="6">
-        <v>67.7</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -838,11 +830,11 @@
         <v>1735</v>
       </c>
       <c r="M5" s="6">
-        <v>531.83000000000004</v>
+        <v>530</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="8">
-        <v>1203.17</v>
+      <c r="O5" s="11">
+        <v>1205</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
@@ -866,13 +858,13 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="8">
-        <v>1683.97</v>
+        <v>1683.99</v>
       </c>
       <c r="G6" s="8">
-        <v>3418.63</v>
+        <v>3416.74</v>
       </c>
       <c r="H6" s="6">
-        <v>51.03</v>
+        <v>51.01</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -884,17 +876,17 @@
         <v>1735</v>
       </c>
       <c r="L6" s="8">
-        <v>1683.97</v>
+        <v>1683.99</v>
       </c>
       <c r="M6" s="6">
         <v>0</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6">
-        <v>287.14</v>
+        <v>288.99</v>
       </c>
       <c r="P6" s="6">
-        <v>51.03</v>
+        <v>51.01</v>
       </c>
       <c r="Q6" s="6">
         <v>0</v>
@@ -915,13 +907,13 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="8">
-        <v>1700.81</v>
+        <v>1700.83</v>
       </c>
       <c r="G7" s="8">
-        <v>1717.82</v>
+        <v>1715.91</v>
       </c>
       <c r="H7" s="6">
-        <v>34.19</v>
+        <v>34.17</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -962,13 +954,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="8">
-        <v>1717.82</v>
+        <v>1715.91</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>17.18</v>
+        <v>19.09</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -980,7 +972,7 @@
         <v>1735</v>
       </c>
       <c r="L8" s="8">
-        <v>1600.86</v>
+        <v>1599.01</v>
       </c>
       <c r="M8" s="6">
         <v>0</v>
@@ -993,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="6">
-        <v>134.13999999999999</v>
+        <v>135.99</v>
       </c>
     </row>
   </sheetData>
@@ -1006,18 +998,17 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1056,7 +1047,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>37</v>
@@ -1071,10 +1062,10 @@
         <v>1723</v>
       </c>
       <c r="F2" s="8">
-        <v>1705.82</v>
+        <v>1703.91</v>
       </c>
       <c r="G2" s="6">
-        <v>17.18</v>
+        <v>19.09</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1083,14 +1074,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>134.13999999999999</v>
+        <v>135.99</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>37</v>
@@ -1105,10 +1096,10 @@
         <v>1900</v>
       </c>
       <c r="F3" s="8">
-        <v>1865.81</v>
+        <v>1865.83</v>
       </c>
       <c r="G3" s="6">
-        <v>34.19</v>
+        <v>34.17</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -1117,14 +1108,14 @@
         <v>0</v>
       </c>
       <c r="J3" s="8">
-        <v>1839.96</v>
+        <v>1839.9</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>37</v>
@@ -1151,14 +1142,14 @@
         <v>0</v>
       </c>
       <c r="J4" s="8">
-        <v>3705.77</v>
+        <v>3705.73</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -1170,7 +1161,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="6">
-        <v>51.03</v>
+        <v>51.01</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1185,14 +1176,14 @@
         <v>0</v>
       </c>
       <c r="J5" s="8">
-        <v>5605.77</v>
+        <v>5605.73</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>37</v>
@@ -1219,14 +1210,14 @@
         <v>0</v>
       </c>
       <c r="J6" s="8">
-        <v>5605.77</v>
+        <v>5605.73</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>37</v>
@@ -1241,10 +1232,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="6">
-        <v>932.3</v>
+        <v>932.32</v>
       </c>
       <c r="G7" s="6">
-        <v>67.7</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -1253,14 +1244,14 @@
         <v>0</v>
       </c>
       <c r="J7" s="8">
-        <v>6305.77</v>
+        <v>6305.73</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>37</v>
@@ -1275,10 +1266,10 @@
         <v>1500</v>
       </c>
       <c r="F8" s="8">
-        <v>1415.79</v>
+        <v>1415.81</v>
       </c>
       <c r="G8" s="6">
-        <v>84.21</v>
+        <v>84.19</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1287,14 +1278,14 @@
         <v>0</v>
       </c>
       <c r="J8" s="8">
-        <v>7238.07</v>
+        <v>7238.05</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>37</v>
@@ -1328,7 +1319,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>37</v>
@@ -1339,11 +1330,11 @@
       <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="8">
-        <v>1733.17</v>
+      <c r="E10" s="11">
+        <v>1735</v>
       </c>
       <c r="F10" s="8">
-        <v>1632.64</v>
+        <v>1634.47</v>
       </c>
       <c r="G10" s="6">
         <v>100.53</v>
@@ -1355,14 +1346,14 @@
         <v>0</v>
       </c>
       <c r="J10" s="8">
-        <v>8420.69</v>
+        <v>8418.86</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>37</v>
@@ -1396,7 +1387,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>37</v>
@@ -1430,7 +1421,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>37</v>
@@ -1829,15 +1820,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1865,14 +1857,14 @@
         <v>10053.33</v>
       </c>
       <c r="B2" s="8">
-        <v>9919.19</v>
+        <v>9917.34</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2" s="6">
-        <v>134.13999999999999</v>
+        <v>135.99</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -1880,13 +1872,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>354.84</v>
+        <v>356.67</v>
       </c>
       <c r="B3" s="6">
-        <v>303.81</v>
+        <v>305.66000000000003</v>
       </c>
       <c r="C3" s="6">
-        <v>51.03</v>
+        <v>51.01</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
